--- a/학습자료/단답형/객관식_삼국시대_연도(왕).xlsx
+++ b/학습자료/단답형/객관식_삼국시대_연도(왕).xlsx
@@ -449,8 +449,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>신라 건국
-1. 371년 : 근초고왕
-2. 645년 : 보장왕
+1. 651년 : 진덕여왕
+2. 667년 : 보장왕
 3. -57년 : 박혁거세</t>
         </is>
       </c>
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>고구려 건국
-1. 194년 : 고국천왕
-2. -37년 : 동명왕
-3. 493년 : 소지왕</t>
+1. -18년 : 온조왕
+2. 475년 : 문주왕
+3. -37년 : 동명왕</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2, -37년 : 동명왕</t>
+          <t>3, -37년 : 동명왕</t>
         </is>
       </c>
     </row>
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>백제 건국
-1. -18년 : 온조왕
-2. 490년 : 소지왕
-3. 371년 : 소수림왕</t>
+1. 720년 : 성덕왕
+2. 935년 : 경순왕
+3. -18년 : 온조왕</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1, -18년 : 온조왕</t>
+          <t>3, -18년 : 온조왕</t>
         </is>
       </c>
     </row>
@@ -494,14 +494,14 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>고구려 국내성 천도
-1. 3년 : 유리왕
-2. 586년 : 영양왕
-3. 660년 : 문무왕</t>
+1. 643년 : 보장왕
+2. 3년 : 유리왕
+3. 433년 : 눌지왕</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1, 3년 : 유리왕</t>
+          <t>2, 3년 : 유리왕</t>
         </is>
       </c>
     </row>
@@ -509,14 +509,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>금관가야 건국
-1. 647년 : 보장왕
-2. 42년 : 김수로왕
-3. 509년 : 지증왕</t>
+1. 42년 : 김수로왕
+2. 668년 : 멸망
+3. 660년 : 멸망</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2, 42년 : 김수로왕</t>
+          <t>1, 42년 : 김수로왕</t>
         </is>
       </c>
     </row>
@@ -524,14 +524,14 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>고구려 진대법 도입
-1. 659년 : 의자왕
-2. 527년 : 법흥왕
-3. 194년 : 고국천왕</t>
+1. 725년 : 무왕
+2. 194년 : 고국천왕
+3. 414년 : 장수왕</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3, 194년 : 고국천왕</t>
+          <t>2, 194년 : 고국천왕</t>
         </is>
       </c>
     </row>
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>고구려의 위나라 서안평 침공
-1. 472년 : 개로왕
-2. 242년 : 동천왕
-3. 888년 : 진성여왕</t>
+1. 242년 : 동천왕
+2. 552년 : 성왕
+3. 525년 : 성왕</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2, 242년 : 동천왕</t>
+          <t>1, 242년 : 동천왕</t>
         </is>
       </c>
     </row>
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>위나라 관구검의 고구려 침입
-1. 624년 : 영류왕
-2. 242년 : 동천왕
-3. 822년 : 헌덕왕</t>
+1. 242년 : 동천왕
+2. 768년 : 혜공왕
+3. 554년 : 진흥왕</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2, 242년 : 동천왕</t>
+          <t>1, 242년 : 동천왕</t>
         </is>
       </c>
     </row>
@@ -569,14 +569,14 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>백제 관등제 정비 및 공복제 도입
-1. 260년 : 고이왕
-2. 934년 : 경순왕
-3. 631년 : 무왕</t>
+1. 42년 : 김수로왕
+2. 555년 : 진흥왕
+3. 260년 : 고이왕</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1, 260년 : 고이왕</t>
+          <t>3, 260년 : 고이왕</t>
         </is>
       </c>
     </row>
@@ -585,8 +585,8 @@
         <is>
           <t>백제 6좌평 설치
 1. 260년 : 고이왕
-2. 532년 : 법흥왕
-3. 799년 : 헌덕왕</t>
+2. 682년 : 신문왕
+3. 757년 : 문왕</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -599,14 +599,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>백제 남당 설치
-1. 681년 : 신문왕
-2. 675년 : 문무왕
-3. 261년 : 고이왕</t>
+1. 834년 : 문성왕
+2. 261년 : 고이왕
+3. 685년 : 신문왕</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3, 261년 : 고이왕</t>
+          <t>2, 261년 : 고이왕</t>
         </is>
       </c>
     </row>
@@ -614,14 +614,14 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>백제 율령 반포
-1. 668년 : 멸망
-2. 682년 : 신문왕
-3. 262년 : 고이왕</t>
+1. 262년 : 고이왕
+2. 732년 : 성덕왕
+3. 645년 : 선덕여왕</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3, 262년 : 고이왕</t>
+          <t>1, 262년 : 고이왕</t>
         </is>
       </c>
     </row>
@@ -629,14 +629,14 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>고구려 낙랑군 대방군 축출
-1. 314년 : 미천왕
-2. 647년 : 진덕여왕
-3. 651년 : 무열왕</t>
+1. 717년 : 무왕
+2. 314년 : 미천왕
+3. 503년 : 지증왕</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1, 314년 : 미천왕</t>
+          <t>2, 314년 : 미천왕</t>
         </is>
       </c>
     </row>
@@ -644,14 +644,14 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>전연의 고구려 침입
-1. 911년 : 경명왕
-2. 342년 : 고국원왕
-3. 901년 : 효공왕</t>
+1. 818년 : 헌덕왕
+2. 314년 : 미천왕
+3. 342년 : 고국원왕</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2, 342년 : 고국원왕</t>
+          <t>3, 342년 : 고국원왕</t>
         </is>
       </c>
     </row>
@@ -659,14 +659,14 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>백제 마한 전역 통합
-1. 472년 : 개로왕
-2. 369년 : 근초고왕
-3. 689년 : 신문왕</t>
+1. 644년 : 선덕여왕
+2. 638년 : 영류왕
+3. 369년 : 근초고왕</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2, 369년 : 근초고왕</t>
+          <t>3, 369년 : 근초고왕</t>
         </is>
       </c>
     </row>
@@ -674,8 +674,8 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>백제 일본에 칠지도 하사
-1. 897년 : 효공왕
-2. 651년 : 무열왕
+1. 545년 : 진흥왕
+2. 642년 : 선덕여왕
 3. 369년 : 근초고왕</t>
         </is>
       </c>
@@ -689,8 +689,8 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>고구려 고국원왕 전사
-1. 475년 : 문주왕
-2. 727년 : 무왕
+1. 371년 : 소수림왕
+2. 457년 : 눌지왕
 3. 371년 : 근초고왕</t>
         </is>
       </c>
@@ -704,14 +704,14 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>고구려 전진과 수교
-1. 648년 : 진덕여왕
-2. 522년 : 법흥왕
-3. 371년 : 소수림왕</t>
+1. 371년 : 소수림왕
+2. 674년 : 문무왕
+3. 554년 : 진흥왕</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3, 371년 : 소수림왕</t>
+          <t>1, 371년 : 소수림왕</t>
         </is>
       </c>
     </row>
@@ -719,14 +719,14 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>고구려 태학 설립
-1. 526년 : 성왕
-2. 372년 : 소수림왕
-3. 727년 : 무왕</t>
+1. 372년 : 소수림왕
+2. 371년 : 근초고왕
+3. 822년 : 헌덕왕</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2, 372년 : 소수림왕</t>
+          <t>1, 372년 : 소수림왕</t>
         </is>
       </c>
     </row>
@@ -734,9 +734,9 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>전진의 순도 고구려에 불교 전래
-1. 536년 : 법흥왕
+1. 522년 : 법흥왕
 2. 372년 : 소수림왕
-3. 788년 : 문왕</t>
+3. 502년 : 지증왕</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -750,8 +750,8 @@
         <is>
           <t>백제 동진과 외교 관계 수립
 1. 372년 : 근초고왕
-2. 554년 : 진흥왕
-3. 698년 : 고왕</t>
+2. 732년 : 성덕왕
+3. 568년 : 진평왕</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -764,14 +764,14 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>고구려 율령 반포
-1. 713년 : 성덕왕
-2. 892년 : 진성여왕
-3. 373년 : 소수림왕</t>
+1. 373년 : 소수림왕
+2. 651년 : 진덕여왕
+3. 725년 : 무왕</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3, 373년 : 소수림왕</t>
+          <t>1, 373년 : 소수림왕</t>
         </is>
       </c>
     </row>
@@ -779,14 +779,14 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>고흥 역사서 서기 편찬
-1. 722년 : 성덕왕
-2. 375년 : 근초고왕
-3. 926년 : 경애왕</t>
+1. 375년 : 근초고왕
+2. 822년 : 헌덕왕
+3. 644년 : 선덕여왕</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2, 375년 : 근초고왕</t>
+          <t>1, 375년 : 근초고왕</t>
         </is>
       </c>
     </row>
@@ -794,14 +794,14 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>동진의 마라난타 백제에 불교 전래
-1. 384년 : 침류왕
-2. 737년 : 경덕왕
-3. 725년 : 무왕</t>
+1. 487년 : 소지왕
+2. 567년 : 진흥왕
+3. 384년 : 침류왕</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1, 384년 : 침류왕</t>
+          <t>3, 384년 : 침류왕</t>
         </is>
       </c>
     </row>
@@ -809,14 +809,14 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>고구려 연호 영락 사용
-1. 818년 : 헌덕왕
-2. 391년 : 광개토대왕
-3. 634년 : 선덕여왕</t>
+1. 391년 : 광개토대왕
+2. 531년 : 법흥왕
+3. 624년 : 영류왕</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2, 391년 : 광개토대왕</t>
+          <t>1, 391년 : 광개토대왕</t>
         </is>
       </c>
     </row>
@@ -824,14 +824,14 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>백제 아신왕 고구려에 항복
-1. 595년 : 영양왕
-2. 396년 : 광개토대왕
-3. 634년 : 선덕여왕</t>
+1. 400년 : 내물왕
+2. 663년 : 문무왕
+3. 396년 : 광개토대왕</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2, 396년 : 광개토대왕</t>
+          <t>3, 396년 : 광개토대왕</t>
         </is>
       </c>
     </row>
@@ -839,8 +839,8 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>전기 가야연맹 몰락
-1. 487년 : 소지왕
-2. 642년 : 의자왕
+1. 493년 : 소지왕
+2. 472년 : 개로왕
 3. 400년 : 광개토대왕</t>
         </is>
       </c>
@@ -855,8 +855,8 @@
         <is>
           <t>전기 가야연맹 몰락
 1. 400년 : 내물왕
-2. 896년 : 효공왕
-3. 698년 : 고왕</t>
+2. 503년 : 지증왕
+3. 689년 : 신문왕</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -869,14 +869,14 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>고구려 동예 통합
-1. 567년 : 진흥왕
-2. 410년 : 광개토대왕
-3. 590년 : 영양왕</t>
+1. 410년 : 광개토대왕
+2. 369년 : 근초고왕
+3. 892년 : 진성여왕</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2, 410년 : 광개토대왕</t>
+          <t>1, 410년 : 광개토대왕</t>
         </is>
       </c>
     </row>
@@ -884,14 +884,14 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>고구려 광개토대왕릉비 건립
-1. 647년 : 진덕여왕
-2. 414년 : 장수왕
-3. 720년 : 성덕왕</t>
+1. 631년 : 무왕
+2. 901년 : 효공왕
+3. 414년 : 장수왕</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2, 414년 : 장수왕</t>
+          <t>3, 414년 : 장수왕</t>
         </is>
       </c>
     </row>
@@ -899,14 +899,14 @@
       <c r="A32" t="inlineStr">
         <is>
           <t>고구려 평양성 천도
-1. 427년 : 장수왕
-2. 930년 : 경순왕
-3. 684년 : 신문왕</t>
+1. 642년 : 의자왕
+2. 427년 : 장수왕
+3. 897년 : 효공왕</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1, 427년 : 장수왕</t>
+          <t>2, 427년 : 장수왕</t>
         </is>
       </c>
     </row>
@@ -914,14 +914,14 @@
       <c r="A33" t="inlineStr">
         <is>
           <t>나제 동맹 체결
-1. 433년 : 눌지왕
-2. 524년 : 법흥왕
-3. 612년 : 영류왕</t>
+1. 487년 : 소지왕
+2. 612년 : 영양왕
+3. 433년 : 눌지왕</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1, 433년 : 눌지왕</t>
+          <t>3, 433년 : 눌지왕</t>
         </is>
       </c>
     </row>
@@ -929,9 +929,9 @@
       <c r="A34" t="inlineStr">
         <is>
           <t>나제 동맹 체결
-1. 689년 : 효소왕
+1. 762년 : 혜공왕
 2. 433년 : 비유왕
-3. 737년 : 경덕왕</t>
+3. 788년 : 문왕</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -944,14 +944,14 @@
       <c r="A35" t="inlineStr">
         <is>
           <t>고구려의 묵호자 신라에 불교 전래
-1. 457년 : 눌지왕
-2. 517년 : 법흥왕
-3. 732년 : 성덕왕</t>
+1. 828년 : 흥덕왕
+2. 889년 : 진성여왕
+3. 457년 : 눌지왕</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1, 457년 : 눌지왕</t>
+          <t>3, 457년 : 눌지왕</t>
         </is>
       </c>
     </row>
@@ -959,14 +959,14 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>백제 북위에 원병 요청
-1. 531년 : 법흥왕
-2. 261년 : 고이왕
-3. 472년 : 개로왕</t>
+1. 472년 : 개로왕
+2. 551년 : 성왕
+3. 755년 : 경덕왕</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3, 472년 : 개로왕</t>
+          <t>1, 472년 : 개로왕</t>
         </is>
       </c>
     </row>
@@ -974,14 +974,14 @@
       <c r="A37" t="inlineStr">
         <is>
           <t>백제 수도 위례성 함락 개로왕 전사
-1. 475년 : 장수왕
-2. 531년 : 법흥왕
-3. 713년 : 성덕왕</t>
+1. 828년 : 흥덕왕
+2. 490년 : 소지왕
+3. 475년 : 장수왕</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1, 475년 : 장수왕</t>
+          <t>3, 475년 : 장수왕</t>
         </is>
       </c>
     </row>
@@ -989,14 +989,14 @@
       <c r="A38" t="inlineStr">
         <is>
           <t>백제 웅진 천도
-1. 667년 : 보장왕
-2. 475년 : 문주왕
-3. 668년 : 문무왕</t>
+1. 475년 : 문주왕
+2. 663년 : 문무왕
+3. 828년 : 흥덕왕</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2, 475년 : 문주왕</t>
+          <t>1, 475년 : 문주왕</t>
         </is>
       </c>
     </row>
@@ -1005,8 +1005,8 @@
         <is>
           <t>고구려 거란 흥안령 일대 장악
 1. 479년 : 장수왕
-2. 651년 : 무열왕
-3. 934년 : 경순왕</t>
+2. 503년 : 지증왕
+3. 634년 : 선덕여왕</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1019,9 +1019,9 @@
       <c r="A40" t="inlineStr">
         <is>
           <t>신라 우역 설치
-1. 799년 : 헌덕왕
+1. 785년 : 원성왕
 2. 487년 : 소지왕
-3. 911년 : 경명왕</t>
+3. 600년 : 진평왕</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1034,14 +1034,14 @@
       <c r="A41" t="inlineStr">
         <is>
           <t>신라 나을에 신궁 설치
-1. 487년 : 소지왕
-2. 590년 : 영양왕
-3. 822년 : 헌덕왕</t>
+1. 685년 : 신문왕
+2. 3년 : 유리왕
+3. 487년 : 소지왕</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1, 487년 : 소지왕</t>
+          <t>3, 487년 : 소지왕</t>
         </is>
       </c>
     </row>
@@ -1049,14 +1049,14 @@
       <c r="A42" t="inlineStr">
         <is>
           <t>신라 경주에 시장 개설
-1. 717년 : 무왕
-2. 674년 : 문무왕
-3. 490년 : 소지왕</t>
+1. 490년 : 소지왕
+2. 634년 : 선덕여왕
+3. 737년 : 경덕왕</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3, 490년 : 소지왕</t>
+          <t>1, 490년 : 소지왕</t>
         </is>
       </c>
     </row>
@@ -1064,9 +1064,9 @@
       <c r="A43" t="inlineStr">
         <is>
           <t>백제 신라 결혼 동맹 체결
-1. 505년 : 지증왕
+1. 725년 : 무왕
 2. 493년 : 동성왕
-3. 659년 : 의자왕</t>
+3. 598년 : 영양왕</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1080,8 +1080,8 @@
         <is>
           <t>백제 신라 결혼 동맹 체결
 1. 493년 : 소지왕
-2. 689년 : 효소왕
-3. 555년 : 진흥왕</t>
+2. 846년 : 진성여왕
+3. 722년 : 성덕왕</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1094,14 +1094,14 @@
       <c r="A45" t="inlineStr">
         <is>
           <t>고구려 부여 복속
-1. 391년 : 광개토대왕
-2. 494년 : 문자왕
-3. 818년 : 헌덕왕</t>
+1. 494년 : 문자왕
+2. 260년 : 고이왕
+3. 771년 : 혜공왕</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2, 494년 : 문자왕</t>
+          <t>1, 494년 : 문자왕</t>
         </is>
       </c>
     </row>
@@ -1109,14 +1109,14 @@
       <c r="A46" t="inlineStr">
         <is>
           <t>백제 탐라 복속
-1. 822년 : 헌덕왕
-2. 818년 : 헌덕왕
-3. 498년 : 동성왕</t>
+1. 498년 : 동성왕
+2. 525년 : 성왕
+3. 906년 : 효공왕</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3, 498년 : 동성왕</t>
+          <t>1, 498년 : 동성왕</t>
         </is>
       </c>
     </row>
@@ -1124,14 +1124,14 @@
       <c r="A47" t="inlineStr">
         <is>
           <t>신라 포항 중성리 신라비 건립
-1. 314년 : 미천왕
-2. 262년 : 고이왕
-3. 501년 : 지증왕</t>
+1. 897년 : 효공왕
+2. 501년 : 지증왕
+3. 410년 : 광개토대왕</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3, 501년 : 지증왕</t>
+          <t>2, 501년 : 지증왕</t>
         </is>
       </c>
     </row>
@@ -1139,14 +1139,14 @@
       <c r="A48" t="inlineStr">
         <is>
           <t>신라 소를 이용한 농사 시작
-1. 918년 : 애왕
-2. 502년 : 지증왕
-3. 911년 : 경명왕</t>
+1. 502년 : 지증왕
+2. 643년 : 보장왕
+3. 645년 : 의자왕</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2, 502년 : 지증왕</t>
+          <t>1, 502년 : 지증왕</t>
         </is>
       </c>
     </row>
@@ -1154,14 +1154,14 @@
       <c r="A49" t="inlineStr">
         <is>
           <t>신라 사로국을 신라로 개칭
-1. 536년 : 법흥왕
-2. 503년 : 지증왕
-3. 792년 : 소성왕</t>
+1. 503년 : 지증왕
+2. 586년 : 영양왕
+3. 788년 : 문왕</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2, 503년 : 지증왕</t>
+          <t>1, 503년 : 지증왕</t>
         </is>
       </c>
     </row>
@@ -1169,14 +1169,14 @@
       <c r="A50" t="inlineStr">
         <is>
           <t>신라 왕 칭호 사용
-1. 503년 : 지증왕
-2. 517년 : 법흥왕
-3. 725년 : 무왕</t>
+1. 371년 : 소수림왕
+2. 503년 : 지증왕
+3. 673년 : 문무왕</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1, 503년 : 지증왕</t>
+          <t>2, 503년 : 지증왕</t>
         </is>
       </c>
     </row>
@@ -1184,14 +1184,14 @@
       <c r="A51" t="inlineStr">
         <is>
           <t>신라 포항 냉수리 신라비 건립
-1. 503년 : 지증왕
-2. 751년 : 문왕
-3. 643년 : 보장왕</t>
+1. 673년 : 문무왕
+2. 372년 : 근초고왕
+3. 503년 : 지증왕</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1, 503년 : 지증왕</t>
+          <t>3, 503년 : 지증왕</t>
         </is>
       </c>
     </row>
@@ -1199,14 +1199,14 @@
       <c r="A52" t="inlineStr">
         <is>
           <t>신라 상복법 제정
-1. 648년 : 진덕여왕
-2. 612년 : 영류왕
-3. 504년 : 지증왕</t>
+1. 504년 : 지증왕
+2. 493년 : 소지왕
+3. 260년 : 고이왕</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3, 504년 : 지증왕</t>
+          <t>1, 504년 : 지증왕</t>
         </is>
       </c>
     </row>
@@ -1214,14 +1214,14 @@
       <c r="A53" t="inlineStr">
         <is>
           <t>신라 이사부 실직주 군주로 파견
-1. 676년 : 신문왕
-2. 505년 : 지증왕
-3. 727년 : 무왕</t>
+1. 505년 : 지증왕
+2. 645년 : 선덕여왕
+3. -57년 : 박혁거세</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2, 505년 : 지증왕</t>
+          <t>1, 505년 : 지증왕</t>
         </is>
       </c>
     </row>
@@ -1229,14 +1229,14 @@
       <c r="A54" t="inlineStr">
         <is>
           <t>신라 경주에 동시 및 동시전 개설
-1. 509년 : 지증왕
-2. 645년 : 선덕여왕
-3. 892년 : 진성여왕</t>
+1. 642년 : 보장왕
+2. 509년 : 지증왕
+3. 926년 : 경애왕</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1, 509년 : 지증왕</t>
+          <t>2, 509년 : 지증왕</t>
         </is>
       </c>
     </row>
@@ -1244,14 +1244,14 @@
       <c r="A55" t="inlineStr">
         <is>
           <t>신라 이사부의 우산국 정벌
-1. 427년 : 장수왕
-2. 512년 : 지증왕
-3. 369년 : 근초고왕</t>
+1. 889년 : 진성여왕
+2. 493년 : 소지왕
+3. 512년 : 지증왕</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2, 512년 : 지증왕</t>
+          <t>3, 512년 : 지증왕</t>
         </is>
       </c>
     </row>
@@ -1259,14 +1259,14 @@
       <c r="A56" t="inlineStr">
         <is>
           <t>신라 아시촌 소경 설치
-1. 609년 : 영양왕
-2. 681년 : 신문왕
-3. 514년 : 지증왕</t>
+1. 514년 : 지증왕
+2. 371년 : 소수림왕
+3. 780년 : 문왕</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3, 514년 : 지증왕</t>
+          <t>1, 514년 : 지증왕</t>
         </is>
       </c>
     </row>
@@ -1274,14 +1274,14 @@
       <c r="A57" t="inlineStr">
         <is>
           <t>신라 병부 설치
-1. 536년 : 법흥왕
-2. 927년 : 경순왕
-3. 517년 : 법흥왕</t>
+1. 645년 : 의자왕
+2. 517년 : 법흥왕
+3. 685년 : 신문왕</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3, 517년 : 법흥왕</t>
+          <t>2, 517년 : 법흥왕</t>
         </is>
       </c>
     </row>
@@ -1290,8 +1290,8 @@
         <is>
           <t>신라의 4색 공복 제정
 1. 520년 : 법흥왕
-2. 643년 : 보장왕
-3. 668년 : 멸망</t>
+2. 457년 : 눌지왕
+3. 314년 : 미천왕</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1304,14 +1304,14 @@
       <c r="A59" t="inlineStr">
         <is>
           <t>신라 율령 반포
-1. 733년 : 문왕
-2. 520년 : 법흥왕
-3. 586년 : 영양왕</t>
+1. 520년 : 법흥왕
+2. 536년 : 법흥왕
+3. 509년 : 지증왕</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2, 520년 : 법흥왕</t>
+          <t>1, 520년 : 법흥왕</t>
         </is>
       </c>
     </row>
@@ -1319,14 +1319,14 @@
       <c r="A60" t="inlineStr">
         <is>
           <t>신라 골품제도 정비
-1. 568년 : 진평왕
-2. 520년 : 법흥왕
-3. 581년 : 진평왕</t>
+1. 520년 : 법흥왕
+2. 650년 : 진덕여왕
+3. 532년 : 법흥왕</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2, 520년 : 법흥왕</t>
+          <t>1, 520년 : 법흥왕</t>
         </is>
       </c>
     </row>
@@ -1334,14 +1334,14 @@
       <c r="A61" t="inlineStr">
         <is>
           <t>대가야 신라의 결혼 동맹
-1. 522년 : 법흥왕
-2. 896년 : 효공왕
-3. -57년 : 박혁거세</t>
+1. 3년 : 유리왕
+2. 600년 : 진평왕
+3. 522년 : 법흥왕</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1, 522년 : 법흥왕</t>
+          <t>3, 522년 : 법흥왕</t>
         </is>
       </c>
     </row>
@@ -1349,9 +1349,9 @@
       <c r="A62" t="inlineStr">
         <is>
           <t>신라 울진 봉평 신라비 건립
-1. 846년 : 진성여왕
+1. 901년 : 효공왕
 2. 524년 : 법흥왕
-3. 536년 : 법흥왕</t>
+3. 682년 : 신문왕</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1364,14 +1364,14 @@
       <c r="A63" t="inlineStr">
         <is>
           <t>백제 무령왕릉 축조
-1. 525년 : 성왕
-2. 261년 : 고이왕
-3. 896년 : 효공왕</t>
+1. 522년 : 법흥왕
+2. 598년 : 영양왕
+3. 525년 : 성왕</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1, 525년 : 성왕</t>
+          <t>3, 525년 : 성왕</t>
         </is>
       </c>
     </row>
@@ -1379,14 +1379,14 @@
       <c r="A64" t="inlineStr">
         <is>
           <t>백제 겸익 인도의 율장 번역
-1. 651년 : 진덕여왕
-2. 493년 : 동성왕
-3. 526년 : 성왕</t>
+1. 526년 : 성왕
+2. 373년 : 소수림왕
+3. 934년 : 경순왕</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3, 526년 : 성왕</t>
+          <t>1, 526년 : 성왕</t>
         </is>
       </c>
     </row>
@@ -1394,14 +1394,14 @@
       <c r="A65" t="inlineStr">
         <is>
           <t>신라 불교 공인
-1. 527년 : 법흥왕
-2. 396년 : 광개토대왕
-3. 762년 : 혜공왕</t>
+1. 545년 : 진흥왕
+2. 733년 : 문왕
+3. 527년 : 법흥왕</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1, 527년 : 법흥왕</t>
+          <t>3, 527년 : 법흥왕</t>
         </is>
       </c>
     </row>
@@ -1409,14 +1409,14 @@
       <c r="A66" t="inlineStr">
         <is>
           <t>신라 상대등 설치
-1. 242년 : 동천왕
-2. 531년 : 법흥왕
-3. 818년 : 헌덕왕</t>
+1. 609년 : 영양왕
+2. 522년 : 법흥왕
+3. 531년 : 법흥왕</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2, 531년 : 법흥왕</t>
+          <t>3, 531년 : 법흥왕</t>
         </is>
       </c>
     </row>
@@ -1424,14 +1424,14 @@
       <c r="A67" t="inlineStr">
         <is>
           <t>금관가야 정복
-1. 846년 : 진성여왕
-2. 532년 : 법흥왕
-3. 567년 : 진흥왕</t>
+1. 755년 : 경덕왕
+2. 665년 : 문무왕
+3. 532년 : 법흥왕</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2, 532년 : 법흥왕</t>
+          <t>3, 532년 : 법흥왕</t>
         </is>
       </c>
     </row>
@@ -1439,14 +1439,14 @@
       <c r="A68" t="inlineStr">
         <is>
           <t>신라 연호 건원 사용
-1. 536년 : 법흥왕
-2. 527년 : 법흥왕
-3. 733년 : 문왕</t>
+1. 665년 : 문무왕
+2. 536년 : 법흥왕
+3. 645년 : 보장왕</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1, 536년 : 법흥왕</t>
+          <t>2, 536년 : 법흥왕</t>
         </is>
       </c>
     </row>
@@ -1454,8 +1454,8 @@
       <c r="A69" t="inlineStr">
         <is>
           <t>백제 사비 천도
-1. 665년 : 문무왕
-2. 262년 : 고이왕
+1. 501년 : 지증왕
+2. 532년 : 법흥왕
 3. 538년 : 성왕</t>
         </is>
       </c>
@@ -1469,14 +1469,14 @@
       <c r="A70" t="inlineStr">
         <is>
           <t>백제 남부여로 국호 개칭
-1. 400년 : 내물왕
-2. 538년 : 성왕
-3. 384년 : 침류왕</t>
+1. 538년 : 성왕
+2. 527년 : 법흥왕
+3. 372년 : 소수림왕</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2, 538년 : 성왕</t>
+          <t>1, 538년 : 성왕</t>
         </is>
       </c>
     </row>
@@ -1484,8 +1484,8 @@
       <c r="A71" t="inlineStr">
         <is>
           <t>신라 거칠부 국사 편찬
-1. 375년 : 근초고왕
-2. 433년 : 눌지왕
+1. 651년 : 무열왕
+2. 472년 : 개로왕
 3. 545년 : 진흥왕</t>
         </is>
       </c>
@@ -1499,9 +1499,9 @@
       <c r="A72" t="inlineStr">
         <is>
           <t>백제 신라의 한강 회복
-1. 648년 : 진덕여왕
+1. 643년 : 보장왕
 2. 551년 : 성왕
-3. 600년 : 진평왕</t>
+3. 689년 : 신문왕</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1514,14 +1514,14 @@
       <c r="A73" t="inlineStr">
         <is>
           <t>신라 단양 적성비 건립
-1. 396년 : 광개토대왕
-2. 194년 : 고국천왕
-3. 551년 : 진흥왕</t>
+1. 567년 : 진흥왕
+2. 551년 : 진흥왕
+3. 668년 : 문무왕</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3, 551년 : 진흥왕</t>
+          <t>2, 551년 : 진흥왕</t>
         </is>
       </c>
     </row>
@@ -1530,8 +1530,8 @@
         <is>
           <t>백제 노리사치계 일본에 불교 전파
 1. 551년 : 성왕
-2. 545년 : 진흥왕
-3. 846년 : 진성여왕</t>
+2. 505년 : 지증왕
+3. 667년 : 보장왕</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1544,14 +1544,14 @@
       <c r="A75" t="inlineStr">
         <is>
           <t>백제 성왕 관산성 전투 전사
-1. 660년 : 문무왕
-2. 503년 : 지증왕
-3. 552년 : 성왕</t>
+1. 668년 : 멸망
+2. 552년 : 성왕
+3. 720년 : 성덕왕</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3, 552년 : 성왕</t>
+          <t>2, 552년 : 성왕</t>
         </is>
       </c>
     </row>
@@ -1559,14 +1559,14 @@
       <c r="A76" t="inlineStr">
         <is>
           <t>신라 북한산 순수비 건립
-1. 554년 : 진흥왕
-2. 590년 : 영양왕
-3. 918년 : 애왕</t>
+1. 695년 : 고왕
+2. 554년 : 진흥왕
+3. -37년 : 동명왕</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1, 554년 : 진흥왕</t>
+          <t>2, 554년 : 진흥왕</t>
         </is>
       </c>
     </row>
@@ -1574,14 +1574,14 @@
       <c r="A77" t="inlineStr">
         <is>
           <t>신라 창녕비 건립
-1. 505년 : 지증왕
-2. 725년 : 무왕
-3. 555년 : 진흥왕</t>
+1. 685년 : 신문왕
+2. 555년 : 진흥왕
+3. 520년 : 법흥왕</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3, 555년 : 진흥왕</t>
+          <t>2, 555년 : 진흥왕</t>
         </is>
       </c>
     </row>
@@ -1589,14 +1589,14 @@
       <c r="A78" t="inlineStr">
         <is>
           <t>대가야 정복
-1. 561년 : 진흥왕
-2. 645년 : 선덕여왕
-3. 897년 : 효공왕</t>
+1. 522년 : 법흥왕
+2. 561년 : 진흥왕
+3. 918년 : 애왕</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1, 561년 : 진흥왕</t>
+          <t>2, 561년 : 진흥왕</t>
         </is>
       </c>
     </row>
@@ -1604,9 +1604,9 @@
       <c r="A79" t="inlineStr">
         <is>
           <t>신라 품주 설치
-1. 918년 : 애왕
+1. 565년 : 위덕왕
 2. 562년 : 진흥왕
-3. 524년 : 법흥왕</t>
+3. 493년 : 소지왕</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1619,14 +1619,14 @@
       <c r="A80" t="inlineStr">
         <is>
           <t>백제 창왕명 석조 사리감 제작
-1. 565년 : 위덕왕
-2. 817년 : 선왕
-3. 645년 : 의자왕</t>
+1. 242년 : 동천왕
+2. 565년 : 위덕왕
+3. 538년 : 성왕</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1, 565년 : 위덕왕</t>
+          <t>2, 565년 : 위덕왕</t>
         </is>
       </c>
     </row>
@@ -1634,8 +1634,8 @@
       <c r="A81" t="inlineStr">
         <is>
           <t>신라 황룡사 건립
-1. 527년 : 법흥왕
-2. 689년 : 효소왕
+1. 645년 : 보장왕
+2. 612년 : 영류왕
 3. 567년 : 진흥왕</t>
         </is>
       </c>
@@ -1649,14 +1649,14 @@
       <c r="A82" t="inlineStr">
         <is>
           <t>신라 황초령비 건립
-1. 567년 : 진흥왕
-2. 526년 : 성왕
-3. 935년 : 경순왕</t>
+1. 722년 : 성덕왕
+2. 586년 : 영양왕
+3. 567년 : 진흥왕</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1, 567년 : 진흥왕</t>
+          <t>3, 567년 : 진흥왕</t>
         </is>
       </c>
     </row>
@@ -1664,14 +1664,14 @@
       <c r="A83" t="inlineStr">
         <is>
           <t>신라 마운령비 건립
-1. 509년 : 지증왕
-2. 568년 : 진흥왕
-3. 42년 : 김수로왕</t>
+1. 568년 : 진흥왕
+2. 930년 : 경순왕
+3. 584년 : 진평왕</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2, 568년 : 진흥왕</t>
+          <t>1, 568년 : 진흥왕</t>
         </is>
       </c>
     </row>
@@ -1679,9 +1679,9 @@
       <c r="A84" t="inlineStr">
         <is>
           <t>신라 위화부 설치
-1. 918년 : 애왕
+1. 927년 : 경순왕
 2. 568년 : 진평왕
-3. 822년 : 헌덕왕</t>
+3. 727년 : 무왕</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1694,14 +1694,14 @@
       <c r="A85" t="inlineStr">
         <is>
           <t>신라 조부 설치
-1. 581년 : 진평왕
-2. 757년 : 문왕
-3. 433년 : 비유왕</t>
+1. 817년 : 선왕
+2. 581년 : 진평왕
+3. 638년 : 영류왕</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1, 581년 : 진평왕</t>
+          <t>2, 581년 : 진평왕</t>
         </is>
       </c>
     </row>
@@ -1709,14 +1709,14 @@
       <c r="A86" t="inlineStr">
         <is>
           <t>신라 예부 설치
-1. 584년 : 진평왕
-2. 722년 : 성덕왕
-3. 926년 : 경애왕</t>
+1. 568년 : 진평왕
+2. 584년 : 진평왕
+3. 520년 : 법흥왕</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1, 584년 : 진평왕</t>
+          <t>2, 584년 : 진평왕</t>
         </is>
       </c>
     </row>
@@ -1724,14 +1724,14 @@
       <c r="A87" t="inlineStr">
         <is>
           <t>고구려 온달 신라 아단성에서 전사
-1. 562년 : 진흥왕
-2. 665년 : 문무왕
-3. 586년 : 영양왕</t>
+1. 545년 : 진흥왕
+2. 586년 : 영양왕
+3. 498년 : 동성왕</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>3, 586년 : 영양왕</t>
+          <t>2, 586년 : 영양왕</t>
         </is>
       </c>
     </row>
@@ -1739,14 +1739,14 @@
       <c r="A88" t="inlineStr">
         <is>
           <t>고구려 혜자 일본 태자의 스승 파견
-1. 817년 : 선왕
-2. 590년 : 영양왕
-3. 771년 : 혜공왕</t>
+1. 590년 : 영양왕
+2. 567년 : 진흥왕
+3. 526년 : 성왕</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2, 590년 : 영양왕</t>
+          <t>1, 590년 : 영양왕</t>
         </is>
       </c>
     </row>
@@ -1755,8 +1755,8 @@
         <is>
           <t>고구려 수나라 요서지방 선제 공격
 1. 595년 : 영양왕
-2. 612년 : 영류왕
-3. 645년 : 보장왕</t>
+2. 493년 : 동성왕
+3. 737년 : 경덕왕</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1769,14 +1769,14 @@
       <c r="A90" t="inlineStr">
         <is>
           <t>수 문제의 고구려 1차 침입
-1. 598년 : 영양왕
-2. 501년 : 지증왕
-3. 261년 : 고이왕</t>
+1. 433년 : 비유왕
+2. 651년 : 무열왕
+3. 598년 : 영양왕</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1, 598년 : 영양왕</t>
+          <t>3, 598년 : 영양왕</t>
         </is>
       </c>
     </row>
@@ -1784,14 +1784,14 @@
       <c r="A91" t="inlineStr">
         <is>
           <t>고구려 이문진 신집 5권 편찬
-1. 427년 : 장수왕
-2. 479년 : 장수왕
-3. 598년 : 영양왕</t>
+1. 598년 : 영양왕
+2. -57년 : 박혁거세
+3. 675년 : 문무왕</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>3, 598년 : 영양왕</t>
+          <t>1, 598년 : 영양왕</t>
         </is>
       </c>
     </row>
@@ -1799,14 +1799,14 @@
       <c r="A92" t="inlineStr">
         <is>
           <t>신라 원광 수나라에 걸사표 전달
-1. 600년 : 진평왕
-2. 502년 : 지증왕
-3. -37년 : 동명왕</t>
+1. 609년 : 영양왕
+2. 600년 : 진평왕
+3. 674년 : 문무왕</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1, 600년 : 진평왕</t>
+          <t>2, 600년 : 진평왕</t>
         </is>
       </c>
     </row>
@@ -1815,8 +1815,8 @@
         <is>
           <t>신라 김유신을 중심으로 향도 조직
 1. 608년 : 진평왕
-2. 659년 : 의자왕
-3. 897년 : 효공왕</t>
+2. 194년 : 고국천왕
+3. 517년 : 법흥왕</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1829,14 +1829,14 @@
       <c r="A94" t="inlineStr">
         <is>
           <t>고구려 담징 일본에 종이 먹 제조법 전래
-1. 609년 : 영양왕
-2. 780년 : 문왕
-3. 494년 : 문자왕</t>
+1. 498년 : 동성왕
+2. 522년 : 법흥왕
+3. 609년 : 영양왕</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1, 609년 : 영양왕</t>
+          <t>3, 609년 : 영양왕</t>
         </is>
       </c>
     </row>
@@ -1844,14 +1844,14 @@
       <c r="A95" t="inlineStr">
         <is>
           <t>신라 임신서기석 건립
-1. 610년 : 진평왕
-2. 684년 : 신문왕
-3. 536년 : 법흥왕</t>
+1. 733년 : 문왕
+2. 610년 : 진평왕
+3. 638년 : 영류왕</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1, 610년 : 진평왕</t>
+          <t>2, 610년 : 진평왕</t>
         </is>
       </c>
     </row>
@@ -1859,14 +1859,14 @@
       <c r="A96" t="inlineStr">
         <is>
           <t>수 양제의 고구려 2차 침입 및 살수대첩
-1. 612년 : 영양왕
-2. 631년 : 무왕
-3. 531년 : 법흥왕</t>
+1. 194년 : 고국천왕
+2. 555년 : 진흥왕
+3. 612년 : 영양왕</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1, 612년 : 영양왕</t>
+          <t>3, 612년 : 영양왕</t>
         </is>
       </c>
     </row>
@@ -1874,8 +1874,8 @@
       <c r="A97" t="inlineStr">
         <is>
           <t>고구려 당으로부터 도교 수용
-1. 457년 : 눌지왕
-2. 906년 : 효공왕
+1. 926년 : 경애왕
+2. 526년 : 성왕
 3. 612년 : 영류왕</t>
         </is>
       </c>
@@ -1889,14 +1889,14 @@
       <c r="A98" t="inlineStr">
         <is>
           <t>고구려 천리장성 축조 시작
-1. 600년 : 진평왕
-2. 624년 : 영류왕
-3. 194년 : 고국천왕</t>
+1. 371년 : 근초고왕
+2. 384년 : 침류왕
+3. 624년 : 영류왕</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2, 624년 : 영류왕</t>
+          <t>3, 624년 : 영류왕</t>
         </is>
       </c>
     </row>
@@ -1905,8 +1905,8 @@
         <is>
           <t>백제 왕흥사 준공
 1. 631년 : 무왕
-2. -18년 : 온조왕
-3. -57년 : 박혁거세</t>
+2. 771년 : 혜공왕
+3. 371년 : 근초고왕</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1919,14 +1919,14 @@
       <c r="A100" t="inlineStr">
         <is>
           <t>신라 분황사 창건 및 모전석탑 건립
-1. 634년 : 선덕여왕
-2. 647년 : 보장왕
-3. 771년 : 혜공왕</t>
+1. 681년 : 신문왕
+2. 737년 : 경덕왕
+3. 634년 : 선덕여왕</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1, 634년 : 선덕여왕</t>
+          <t>3, 634년 : 선덕여왕</t>
         </is>
       </c>
     </row>
@@ -1934,14 +1934,14 @@
       <c r="A101" t="inlineStr">
         <is>
           <t>백제 익산으로 천도 시도 실패
-1. 581년 : 진평왕
-2. 509년 : 지증왕
-3. 634년 : 무왕</t>
+1. 634년 : 무왕
+2. 527년 : 법흥왕
+3. 930년 : 경순왕</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>3, 634년 : 무왕</t>
+          <t>1, 634년 : 무왕</t>
         </is>
       </c>
     </row>
@@ -1949,9 +1949,9 @@
       <c r="A102" t="inlineStr">
         <is>
           <t>고구려 연개소문의 정변
-1. 372년 : 근초고왕
+1. 934년 : 경순왕
 2. 638년 : 영류왕
-3. 414년 : 장수왕</t>
+3. 514년 : 지증왕</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1964,14 +1964,14 @@
       <c r="A103" t="inlineStr">
         <is>
           <t>신라 김춘추 고구려와 화친 시도 실패
-1. 642년 : 선덕여왕
-2. 260년 : 고이왕
-3. 685년 : 신문왕</t>
+1. 900년 : 효공왕
+2. 642년 : 선덕여왕
+3. 552년 : 성왕</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1, 642년 : 선덕여왕</t>
+          <t>2, 642년 : 선덕여왕</t>
         </is>
       </c>
     </row>
@@ -1979,14 +1979,14 @@
       <c r="A104" t="inlineStr">
         <is>
           <t>백제 신라의 대야성 함락
-1. 834년 : 문성왕
-2. 642년 : 의자왕
-3. 490년 : 소지왕</t>
+1. 551년 : 성왕
+2. 733년 : 문왕
+3. 642년 : 의자왕</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2, 642년 : 의자왕</t>
+          <t>3, 642년 : 의자왕</t>
         </is>
       </c>
     </row>
@@ -1994,14 +1994,14 @@
       <c r="A105" t="inlineStr">
         <is>
           <t>고구려 연개소문의 도교 도입 및 장려
-1. 642년 : 보장왕
-2. 685년 : 신문왕
-3. 509년 : 지증왕</t>
+1. 935년 : 경순왕
+2. 934년 : 경순왕
+3. 642년 : 보장왕</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1, 642년 : 보장왕</t>
+          <t>3, 642년 : 보장왕</t>
         </is>
       </c>
     </row>
@@ -2009,14 +2009,14 @@
       <c r="A106" t="inlineStr">
         <is>
           <t>당 태종의 고구려 침입
-1. -57년 : 박혁거세
-2. 493년 : 소지왕
-3. 643년 : 보장왕</t>
+1. 643년 : 보장왕
+2. 642년 : 의자왕
+3. 372년 : 소수림왕</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>3, 643년 : 보장왕</t>
+          <t>1, 643년 : 보장왕</t>
         </is>
       </c>
     </row>
@@ -2024,14 +2024,14 @@
       <c r="A107" t="inlineStr">
         <is>
           <t>신라 황룡사 9층 목탑 건립
-1. 314년 : 미천왕
-2. 531년 : 법흥왕
-3. 644년 : 선덕여왕</t>
+1. 524년 : 법흥왕
+2. 644년 : 선덕여왕
+3. 888년 : 진성여왕</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>3, 644년 : 선덕여왕</t>
+          <t>2, 644년 : 선덕여왕</t>
         </is>
       </c>
     </row>
@@ -2039,14 +2039,14 @@
       <c r="A108" t="inlineStr">
         <is>
           <t>백제 사택지적비 건립
-1. 906년 : 효공왕
-2. 645년 : 의자왕
-3. 400년 : 광개토대왕</t>
+1. 645년 : 의자왕
+2. 687년 : 신문왕
+3. 371년 : 소수림왕</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2, 645년 : 의자왕</t>
+          <t>1, 645년 : 의자왕</t>
         </is>
       </c>
     </row>
@@ -2054,14 +2054,14 @@
       <c r="A109" t="inlineStr">
         <is>
           <t>고구려 양만춘 안시성 전투 활약
-1. 194년 : 고국천왕
-2. 645년 : 보장왕
-3. 799년 : 헌덕왕</t>
+1. 645년 : 보장왕
+2. 681년 : 신문왕
+3. 479년 : 장수왕</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2, 645년 : 보장왕</t>
+          <t>1, 645년 : 보장왕</t>
         </is>
       </c>
     </row>
@@ -2069,14 +2069,14 @@
       <c r="A110" t="inlineStr">
         <is>
           <t>신라 비담 염종의 난
-1. 757년 : 문왕
-2. 901년 : 효공왕
-3. 645년 : 선덕여왕</t>
+1. 555년 : 진흥왕
+2. 645년 : 선덕여왕
+3. 314년 : 미천왕</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>3, 645년 : 선덕여왕</t>
+          <t>2, 645년 : 선덕여왕</t>
         </is>
       </c>
     </row>
@@ -2085,8 +2085,8 @@
         <is>
           <t>고구려 천리장성 완성
 1. 647년 : 보장왕
-2. 668년 : 멸망
-3. 822년 : 헌덕왕</t>
+2. 538년 : 성왕
+3. 242년 : 동천왕</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2099,14 +2099,14 @@
       <c r="A112" t="inlineStr">
         <is>
           <t>신라 나당 동맹 체결
-1. 651년 : 무열왕
-2. 647년 : 진덕여왕
-3. 551년 : 성왕</t>
+1. 647년 : 진덕여왕
+2. 512년 : 지증왕
+3. 671년 : 문무왕</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2, 647년 : 진덕여왕</t>
+          <t>1, 647년 : 진덕여왕</t>
         </is>
       </c>
     </row>
@@ -2114,9 +2114,9 @@
       <c r="A113" t="inlineStr">
         <is>
           <t>신라 당나라 연호인 영휘 사용
-1. 757년 : 문왕
+1. 561년 : 진흥왕
 2. 648년 : 진덕여왕
-3. 551년 : 성왕</t>
+3. 682년 : 신문왕</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2130,8 +2130,8 @@
         <is>
           <t>신라 당나라에 태평송 전함
 1. 650년 : 진덕여왕
-2. 681년 : 신문왕
-3. 371년 : 근초고왕</t>
+2. 520년 : 법흥왕
+3. 900년 : 효공왕</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2144,14 +2144,14 @@
       <c r="A115" t="inlineStr">
         <is>
           <t>신라 품주를 집사부 창부로 분리
-1. 520년 : 법흥왕
-2. 650년 : 진덕여왕
-3. 897년 : 효공왕</t>
+1. 650년 : 진덕여왕
+2. 689년 : 신문왕
+3. 373년 : 소수림왕</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2, 650년 : 진덕여왕</t>
+          <t>1, 650년 : 진덕여왕</t>
         </is>
       </c>
     </row>
@@ -2159,14 +2159,14 @@
       <c r="A116" t="inlineStr">
         <is>
           <t>신라 좌이방부 설치
-1. 590년 : 영양왕
-2. 651년 : 진덕여왕
-3. 372년 : 근초고왕</t>
+1. 651년 : 진덕여왕
+2. 825년 : 흥덕왕
+3. 698년 : 고왕</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2, 651년 : 진덕여왕</t>
+          <t>1, 651년 : 진덕여왕</t>
         </is>
       </c>
     </row>
@@ -2174,14 +2174,14 @@
       <c r="A117" t="inlineStr">
         <is>
           <t>신라 사정부 설치
-1. 651년 : 무열왕
-2. 493년 : 동성왕
-3. 375년 : 근초고왕</t>
+1. 517년 : 법흥왕
+2. 600년 : 진평왕
+3. 651년 : 무열왕</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>1, 651년 : 무열왕</t>
+          <t>3, 651년 : 무열왕</t>
         </is>
       </c>
     </row>
@@ -2189,8 +2189,8 @@
       <c r="A118" t="inlineStr">
         <is>
           <t>백제 황산벌 전투
-1. 522년 : 법흥왕
-2. -57년 : 박혁거세
+1. 551년 : 진흥왕
+2. 552년 : 성왕
 3. 659년 : 의자왕</t>
         </is>
       </c>
@@ -2204,9 +2204,9 @@
       <c r="A119" t="inlineStr">
         <is>
           <t>백제 멸망
-1. 520년 : 법흥왕
+1. 590년 : 영양왕
 2. 660년 : 의자왕
-3. 433년 : 비유왕</t>
+3. 567년 : 진흥왕</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2219,14 +2219,14 @@
       <c r="A120" t="inlineStr">
         <is>
           <t>신라 복신 도침의 주류성 함락
-1. 660년 : 문무왕
-2. 897년 : 효공왕
-3. 894년 : 진성여왕</t>
+1. 645년 : 의자왕
+2. 660년 : 문무왕
+3. 771년 : 혜공왕</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1, 660년 : 문무왕</t>
+          <t>2, 660년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -2234,14 +2234,14 @@
       <c r="A121" t="inlineStr">
         <is>
           <t>당의 웅진도독부 설치
-1. 689년 : 효소왕
-2. 660년 : 멸망
-3. 732년 : 성덕왕</t>
+1. 673년 : 문무왕
+2. 396년 : 광개토대왕
+3. 660년 : 멸망</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2, 660년 : 멸망</t>
+          <t>3, 660년 : 멸망</t>
         </is>
       </c>
     </row>
@@ -2249,14 +2249,14 @@
       <c r="A122" t="inlineStr">
         <is>
           <t>백제 부흥 운동
-1. 667년 : 보장왕
-2. 660년 : 멸망
-3. 727년 : 무왕</t>
+1. 660년 : 멸망
+2. 645년 : 선덕여왕
+3. 846년 : 진성여왕</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2, 660년 : 멸망</t>
+          <t>1, 660년 : 멸망</t>
         </is>
       </c>
     </row>
@@ -2264,14 +2264,14 @@
       <c r="A123" t="inlineStr">
         <is>
           <t>백제 부흥세력의 백강 전투 패배
-1. 900년 : 효공왕
-2. 660년 : 멸망
-3. 934년 : 경순왕</t>
+1. 681년 : 신문왕
+2. 828년 : 흥덕왕
+3. 660년 : 멸망</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2, 660년 : 멸망</t>
+          <t>3, 660년 : 멸망</t>
         </is>
       </c>
     </row>
@@ -2279,14 +2279,14 @@
       <c r="A124" t="inlineStr">
         <is>
           <t>당의 계림도독부 설치
-1. 663년 : 문무왕
-2. 757년 : 문왕
-3. 659년 : 의자왕</t>
+1. 562년 : 진흥왕
+2. 645년 : 의자왕
+3. 663년 : 문무왕</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1, 663년 : 문무왕</t>
+          <t>3, 663년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -2294,14 +2294,14 @@
       <c r="A125" t="inlineStr">
         <is>
           <t>신라 취리산 회맹
-1. 663년 : 문무왕
-2. 567년 : 진흥왕
-3. 502년 : 지증왕</t>
+1. 825년 : 흥덕왕
+2. 663년 : 문무왕
+3. 647년 : 진덕여왕</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1, 663년 : 문무왕</t>
+          <t>2, 663년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -2309,14 +2309,14 @@
       <c r="A126" t="inlineStr">
         <is>
           <t>고구려 연정토 신라에 투항
-1. 472년 : 개로왕
-2. 642년 : 보장왕
-3. 665년 : 문무왕</t>
+1. 665년 : 문무왕
+2. 505년 : 지증왕
+3. 894년 : 진성여왕</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>3, 665년 : 문무왕</t>
+          <t>1, 665년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -2324,14 +2324,14 @@
       <c r="A127" t="inlineStr">
         <is>
           <t>신라 우이방부 설치
-1. 666년 : 문무왕
-2. 369년 : 근초고왕
-3. 194년 : 고국천왕</t>
+1. 372년 : 근초고왕
+2. 666년 : 문무왕
+3. 610년 : 진평왕</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1, 666년 : 문무왕</t>
+          <t>2, 666년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -2339,14 +2339,14 @@
       <c r="A128" t="inlineStr">
         <is>
           <t>고구려 멸망
-1. 799년 : 헌덕왕
-2. 562년 : 진흥왕
-3. 667년 : 보장왕</t>
+1. 668년 : 멸망
+2. 667년 : 보장왕
+3. 900년 : 효공왕</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>3, 667년 : 보장왕</t>
+          <t>2, 667년 : 보장왕</t>
         </is>
       </c>
     </row>
@@ -2354,14 +2354,14 @@
       <c r="A129" t="inlineStr">
         <is>
           <t>당의 안동도호부 설치
-1. 509년 : 지증왕
-2. 682년 : 신문왕
-3. 668년 : 멸망</t>
+1. 668년 : 멸망
+2. 755년 : 경덕왕
+3. 498년 : 동성왕</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>3, 668년 : 멸망</t>
+          <t>1, 668년 : 멸망</t>
         </is>
       </c>
     </row>
@@ -2370,8 +2370,8 @@
         <is>
           <t>고구려 부흥 운동
 1. 668년 : 멸망
-2. 562년 : 진흥왕
-3. 643년 : 보장왕</t>
+2. 675년 : 문무왕
+3. 645년 : 보장왕</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2384,14 +2384,14 @@
       <c r="A131" t="inlineStr">
         <is>
           <t>신라 사비에 소부리주 설치
-1. 634년 : 무왕
-2. 668년 : 문무왕
-3. -57년 : 박혁거세</t>
+1. 503년 : 지증왕
+2. 638년 : 영류왕
+3. 668년 : 문무왕</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2, 668년 : 문무왕</t>
+          <t>3, 668년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -2400,8 +2400,8 @@
         <is>
           <t>신라 외사정 설치
 1. 671년 : 문무왕
-2. 906년 : 효공왕
-3. 732년 : 성덕왕</t>
+2. 751년 : 문왕
+3. 689년 : 효소왕</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2414,14 +2414,14 @@
       <c r="A133" t="inlineStr">
         <is>
           <t>신라 안승을 보덕국왕에 임명
-1. 650년 : 진덕여왕
-2. 673년 : 문무왕
-3. 502년 : 지증왕</t>
+1. 673년 : 문무왕
+2. 551년 : 성왕
+3. 727년 : 무왕</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2, 673년 : 문무왕</t>
+          <t>1, 673년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -2429,8 +2429,8 @@
       <c r="A134" t="inlineStr">
         <is>
           <t>신라 당나라와 마전 적성 전투
-1. 505년 : 지증왕
-2. 384년 : 침류왕
+1. 568년 : 진흥왕
+2. 732년 : 성덕왕
 3. 674년 : 문무왕</t>
         </is>
       </c>
@@ -2444,9 +2444,9 @@
       <c r="A135" t="inlineStr">
         <is>
           <t>신라 당나라와 매소성 전투
-1. 475년 : 문주왕
+1. 755년 : 경덕왕
 2. 675년 : 문무왕
-3. 651년 : 진덕여왕</t>
+3. 490년 : 소지왕</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2459,14 +2459,14 @@
       <c r="A136" t="inlineStr">
         <is>
           <t>의상 부석사 건립
-1. 674년 : 문무왕
-2. 551년 : 진흥왕
-3. 675년 : 문무왕</t>
+1. 675년 : 문무왕
+2. 648년 : 진덕여왕
+3. 538년 : 성왕</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>3, 675년 : 문무왕</t>
+          <t>1, 675년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -2474,8 +2474,8 @@
       <c r="A137" t="inlineStr">
         <is>
           <t>신라 당의 안동도호부 축출
-1. 685년 : 신문왕
-2. 901년 : 효공왕
+1. 610년 : 진평왕
+2. 372년 : 소수림왕
 3. 676년 : 문무왕</t>
         </is>
       </c>
@@ -2489,14 +2489,14 @@
       <c r="A138" t="inlineStr">
         <is>
           <t>신라 당나라와 기벌포 전투
-1. 660년 : 문무왕
-2. 676년 : 문무왕
-3. 901년 : 효공왕</t>
+1. 261년 : 고이왕
+2. 514년 : 지증왕
+3. 676년 : 문무왕</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2, 676년 : 문무왕</t>
+          <t>3, 676년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -2504,14 +2504,14 @@
       <c r="A139" t="inlineStr">
         <is>
           <t>신라 삼국 통일
-1. 676년 : 문무왕
-2. 551년 : 성왕
-3. 642년 : 보장왕</t>
+1. 674년 : 문무왕
+2. 676년 : 문무왕
+3. 414년 : 장수왕</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1, 676년 : 문무왕</t>
+          <t>2, 676년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -2519,14 +2519,14 @@
       <c r="A140" t="inlineStr">
         <is>
           <t>통일신라 문무왕릉 건립
-1. 930년 : 경순왕
-2. 676년 : 신문왕
-3. 610년 : 진평왕</t>
+1. 676년 : 신문왕
+2. 825년 : 흥덕왕
+3. 934년 : 경순왕</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2, 676년 : 신문왕</t>
+          <t>1, 676년 : 신문왕</t>
         </is>
       </c>
     </row>
@@ -2534,14 +2534,14 @@
       <c r="A141" t="inlineStr">
         <is>
           <t>통일신라 김흠돌 모역 사건
-1. 586년 : 영양왕
-2. 505년 : 지증왕
-3. 681년 : 신문왕</t>
+1. 676년 : 문무왕
+2. 681년 : 신문왕
+3. 634년 : 선덕여왕</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>3, 681년 : 신문왕</t>
+          <t>2, 681년 : 신문왕</t>
         </is>
       </c>
     </row>
@@ -2549,14 +2549,14 @@
       <c r="A142" t="inlineStr">
         <is>
           <t>통일신라 국학 설립
-1. 681년 : 신문왕
-2. 828년 : 흥덕왕
-3. -18년 : 온조왕</t>
+1. 487년 : 소지왕
+2. 681년 : 신문왕
+3. 342년 : 고국원왕</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1, 681년 : 신문왕</t>
+          <t>2, 681년 : 신문왕</t>
         </is>
       </c>
     </row>
@@ -2564,9 +2564,9 @@
       <c r="A143" t="inlineStr">
         <is>
           <t>통일신라 감은사 창건
-1. 536년 : 법흥왕
+1. 545년 : 진흥왕
 2. 682년 : 신문왕
-3. 911년 : 경명왕</t>
+3. 659년 : 의자왕</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2579,9 +2579,9 @@
       <c r="A144" t="inlineStr">
         <is>
           <t>안승의 조카 대문의 금마저 반역
-1. 498년 : 동성왕
+1. 720년 : 성덕왕
 2. 682년 : 신문왕
-3. 433년 : 비유왕</t>
+3. 502년 : 지증왕</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2594,14 +2594,14 @@
       <c r="A145" t="inlineStr">
         <is>
           <t>통일신라 9주 5소경 정비
-1. 684년 : 신문왕
-2. 817년 : 선왕
-3. 42년 : 김수로왕</t>
+1. 194년 : 고국천왕
+2. 717년 : 무왕
+3. 684년 : 신문왕</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1, 684년 : 신문왕</t>
+          <t>3, 684년 : 신문왕</t>
         </is>
       </c>
     </row>
@@ -2609,14 +2609,14 @@
       <c r="A146" t="inlineStr">
         <is>
           <t>통일신라 관료전 지급
-1. 373년 : 소수림왕
-2. 685년 : 신문왕
-3. 498년 : 동성왕</t>
+1. 590년 : 영양왕
+2. 505년 : 지증왕
+3. 685년 : 신문왕</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2, 685년 : 신문왕</t>
+          <t>3, 685년 : 신문왕</t>
         </is>
       </c>
     </row>
@@ -2624,14 +2624,14 @@
       <c r="A147" t="inlineStr">
         <is>
           <t>통일신라 9서당 10정 정비
-1. -18년 : 온조왕
-2. 834년 : 문성왕
-3. 687년 : 신문왕</t>
+1. 536년 : 법흥왕
+2. 687년 : 신문왕
+3. 373년 : 소수림왕</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>3, 687년 : 신문왕</t>
+          <t>2, 687년 : 신문왕</t>
         </is>
       </c>
     </row>
@@ -2639,14 +2639,14 @@
       <c r="A148" t="inlineStr">
         <is>
           <t>통일신라 녹읍 폐지
-1. 659년 : 의자왕
-2. 687년 : 신문왕
-3. 372년 : 근초고왕</t>
+1. 687년 : 신문왕
+2. 660년 : 멸망
+3. 314년 : 미천왕</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2, 687년 : 신문왕</t>
+          <t>1, 687년 : 신문왕</t>
         </is>
       </c>
     </row>
@@ -2654,14 +2654,14 @@
       <c r="A149" t="inlineStr">
         <is>
           <t>통일신라 달구벌 천도 실패
-1. 565년 : 위덕왕
-2. 514년 : 지증왕
-3. 689년 : 신문왕</t>
+1. 689년 : 신문왕
+2. 494년 : 문자왕
+3. 624년 : 영류왕</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>3, 689년 : 신문왕</t>
+          <t>1, 689년 : 신문왕</t>
         </is>
       </c>
     </row>
@@ -2669,9 +2669,9 @@
       <c r="A150" t="inlineStr">
         <is>
           <t>통일신라 서시 남시 증설
-1. 733년 : 문왕
+1. 514년 : 지증왕
 2. 689년 : 효소왕
-3. 498년 : 동성왕</t>
+3. 631년 : 무왕</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2684,9 +2684,9 @@
       <c r="A151" t="inlineStr">
         <is>
           <t>발해 건국
-1. 660년 : 멸망
+1. 536년 : 법흥왕
 2. 695년 : 고왕
-3. 586년 : 영양왕</t>
+3. 663년 : 문무왕</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2699,9 +2699,9 @@
       <c r="A152" t="inlineStr">
         <is>
           <t>당의 발해군왕 책봉 및 국호 발해 사용
-1. 689년 : 효소왕
+1. 663년 : 문무왕
 2. 698년 : 고왕
-3. 410년 : 광개토대왕</t>
+3. 504년 : 지증왕</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2714,14 +2714,14 @@
       <c r="A153" t="inlineStr">
         <is>
           <t>통일신라 공자 화상 국학에 안치
-1. 727년 : 무왕
-2. 713년 : 성덕왕
-3. 935년 : 경순왕</t>
+1. 713년 : 성덕왕
+2. 487년 : 소지왕
+3. -18년 : 온조왕</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2, 713년 : 성덕왕</t>
+          <t>1, 713년 : 성덕왕</t>
         </is>
       </c>
     </row>
@@ -2729,14 +2729,14 @@
       <c r="A154" t="inlineStr">
         <is>
           <t>발해 연호 인안 사용
-1. 371년 : 소수림왕
-2. 828년 : 흥덕왕
-3. 717년 : 무왕</t>
+1. 538년 : 성왕
+2. 717년 : 무왕
+3. 755년 : 경덕왕</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>3, 717년 : 무왕</t>
+          <t>2, 717년 : 무왕</t>
         </is>
       </c>
     </row>
@@ -2744,14 +2744,14 @@
       <c r="A155" t="inlineStr">
         <is>
           <t>통일신라 정전 지급
-1. 737년 : 경덕왕
-2. 720년 : 성덕왕
-3. 771년 : 혜공왕</t>
+1. 720년 : 성덕왕
+2. 609년 : 영양왕
+3. 479년 : 장수왕</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2, 720년 : 성덕왕</t>
+          <t>1, 720년 : 성덕왕</t>
         </is>
       </c>
     </row>
@@ -2759,14 +2759,14 @@
       <c r="A156" t="inlineStr">
         <is>
           <t>통일신라 상원사 동종 주조
-1. 722년 : 성덕왕
-2. 894년 : 진성여왕
-3. 660년 : 의자왕</t>
+1. 643년 : 보장왕
+2. 262년 : 고이왕
+3. 722년 : 성덕왕</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>1, 722년 : 성덕왕</t>
+          <t>3, 722년 : 성덕왕</t>
         </is>
       </c>
     </row>
@@ -2774,14 +2774,14 @@
       <c r="A157" t="inlineStr">
         <is>
           <t>발해 나당 견제위해 일본에 사신 파견
-1. 901년 : 효공왕
-2. 762년 : 혜공왕
-3. 725년 : 무왕</t>
+1. 494년 : 문자왕
+2. 725년 : 무왕
+3. 645년 : 의자왕</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>3, 725년 : 무왕</t>
+          <t>2, 725년 : 무왕</t>
         </is>
       </c>
     </row>
@@ -2789,8 +2789,8 @@
       <c r="A158" t="inlineStr">
         <is>
           <t>발해 장문휴 당 산둥반도 등주 공격
-1. 644년 : 선덕여왕
-2. 642년 : 선덕여왕
+1. 526년 : 성왕
+2. 536년 : 법흥왕
 3. 727년 : 무왕</t>
         </is>
       </c>
@@ -2804,8 +2804,8 @@
       <c r="A159" t="inlineStr">
         <is>
           <t>통일신라 발해 공격
-1. 242년 : 동천왕
-2. 501년 : 지증왕
+1. 600년 : 진평왕
+2. 568년 : 진평왕
 3. 732년 : 성덕왕</t>
         </is>
       </c>
@@ -2819,14 +2819,14 @@
       <c r="A160" t="inlineStr">
         <is>
           <t>발해 연호 대흥 사용
-1. 586년 : 영양왕
-2. 568년 : 진평왕
-3. 733년 : 문왕</t>
+1. 788년 : 문왕
+2. 733년 : 문왕
+3. 725년 : 무왕</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>3, 733년 : 문왕</t>
+          <t>2, 733년 : 문왕</t>
         </is>
       </c>
     </row>
@@ -2835,8 +2835,8 @@
         <is>
           <t>통일신라 불국사 석굴암 건립
 1. 737년 : 경덕왕
-2. 568년 : 진흥왕
-3. 648년 : 진덕여왕</t>
+2. 314년 : 미천왕
+3. 479년 : 장수왕</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2849,14 +2849,14 @@
       <c r="A162" t="inlineStr">
         <is>
           <t>발해 중경에서 상경 천도
-1. 751년 : 문왕
-2. 400년 : 광개토대왕
-3. 261년 : 고이왕</t>
+1. 624년 : 영류왕
+2. 733년 : 문왕
+3. 751년 : 문왕</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>1, 751년 : 문왕</t>
+          <t>3, 751년 : 문왕</t>
         </is>
       </c>
     </row>
@@ -2864,14 +2864,14 @@
       <c r="A163" t="inlineStr">
         <is>
           <t>통일신라 녹읍 부활
-1. 755년 : 경덕왕
-2. 668년 : 문무왕
-3. 892년 : 진성여왕</t>
+1. -37년 : 동명왕
+2. 755년 : 경덕왕
+3. 532년 : 법흥왕</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>1, 755년 : 경덕왕</t>
+          <t>2, 755년 : 경덕왕</t>
         </is>
       </c>
     </row>
@@ -2879,14 +2879,14 @@
       <c r="A164" t="inlineStr">
         <is>
           <t>당의 발해국왕 책봉
-1. 663년 : 문무왕
-2. 900년 : 효공왕
-3. 757년 : 문왕</t>
+1. 757년 : 문왕
+2. 612년 : 영양왕
+3. 681년 : 신문왕</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>3, 757년 : 문왕</t>
+          <t>1, 757년 : 문왕</t>
         </is>
       </c>
     </row>
@@ -2894,14 +2894,14 @@
       <c r="A165" t="inlineStr">
         <is>
           <t>통일신라 대공의 난 발발
-1. 586년 : 영양왕
-2. 568년 : 진흥왕
-3. 762년 : 혜공왕</t>
+1. 762년 : 혜공왕
+2. 911년 : 경명왕
+3. 651년 : 진덕여왕</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>3, 762년 : 혜공왕</t>
+          <t>1, 762년 : 혜공왕</t>
         </is>
       </c>
     </row>
@@ -2909,9 +2909,9 @@
       <c r="A166" t="inlineStr">
         <is>
           <t>통일신라 96각간의 난 발발
-1. 674년 : 문무왕
+1. 751년 : 문왕
 2. 768년 : 혜공왕
-3. 896년 : 효공왕</t>
+3. 562년 : 진흥왕</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2924,14 +2924,14 @@
       <c r="A167" t="inlineStr">
         <is>
           <t>통일신라 성덕대왕신종 완성
-1. 494년 : 문자왕
-2. 768년 : 혜공왕
-3. 668년 : 문무왕</t>
+1. 610년 : 진평왕
+2. 733년 : 문왕
+3. 768년 : 혜공왕</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2, 768년 : 혜공왕</t>
+          <t>3, 768년 : 혜공왕</t>
         </is>
       </c>
     </row>
@@ -2940,8 +2940,8 @@
         <is>
           <t>통일신라 김지정의 난 발발
 1. 771년 : 혜공왕
-2. 586년 : 영양왕
-3. 926년 : 경애왕</t>
+2. 645년 : 보장왕
+3. 892년 : 진성여왕</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2954,14 +2954,14 @@
       <c r="A169" t="inlineStr">
         <is>
           <t>발해 정혜공주묘 축조
-1. 427년 : 장수왕
-2. 780년 : 문왕
-3. 648년 : 진덕여왕</t>
+1. 600년 : 진평왕
+2. 638년 : 영류왕
+3. 780년 : 문왕</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2, 780년 : 문왕</t>
+          <t>3, 780년 : 문왕</t>
         </is>
       </c>
     </row>
@@ -2969,14 +2969,14 @@
       <c r="A170" t="inlineStr">
         <is>
           <t>발해 동경 천도
-1. 689년 : 신문왕
-2. 780년 : 문왕
-3. 695년 : 고왕</t>
+1. 659년 : 의자왕
+2. 666년 : 문무왕
+3. 780년 : 문왕</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2, 780년 : 문왕</t>
+          <t>3, 780년 : 문왕</t>
         </is>
       </c>
     </row>
@@ -2984,14 +2984,14 @@
       <c r="A171" t="inlineStr">
         <is>
           <t>통일신라 독서삼품과 실시
-1. 645년 : 의자왕
-2. 905년 : 효공왕
-3. 785년 : 원성왕</t>
+1. 934년 : 경순왕
+2. 785년 : 원성왕
+3. 788년 : 문왕</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>3, 785년 : 원성왕</t>
+          <t>2, 785년 : 원성왕</t>
         </is>
       </c>
     </row>
@@ -2999,14 +2999,14 @@
       <c r="A172" t="inlineStr">
         <is>
           <t>발해 정효공주묘 축조
-1. 788년 : 문왕
-2. 818년 : 헌덕왕
-3. 825년 : 흥덕왕</t>
+1. 568년 : 진흥왕
+2. 788년 : 문왕
+3. 586년 : 영양왕</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>1, 788년 : 문왕</t>
+          <t>2, 788년 : 문왕</t>
         </is>
       </c>
     </row>
@@ -3014,9 +3014,9 @@
       <c r="A173" t="inlineStr">
         <is>
           <t>신라 청주 거로현을 국학생의 녹읍으로 사용
-1. 682년 : 신문왕
+1. 552년 : 성왕
 2. 792년 : 소성왕
-3. 524년 : 법흥왕</t>
+3. 892년 : 진성여왕</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3029,8 +3029,8 @@
       <c r="A174" t="inlineStr">
         <is>
           <t>통일신라 이차돈 순교비 건립
-1. 676년 : 신문왕
-2. 194년 : 고국천왕
+1. 659년 : 의자왕
+2. 930년 : 경순왕
 3. 799년 : 헌덕왕</t>
         </is>
       </c>
@@ -3044,8 +3044,8 @@
       <c r="A175" t="inlineStr">
         <is>
           <t>발해 연호 건흥 사용
-1. 475년 : 문주왕
-2. 545년 : 진흥왕
+1. 552년 : 성왕
+2. 665년 : 문무왕
 3. 817년 : 선왕</t>
         </is>
       </c>
@@ -3059,14 +3059,14 @@
       <c r="A176" t="inlineStr">
         <is>
           <t>통일신라 김헌창의 난
-1. 751년 : 문왕
-2. 538년 : 성왕
-3. 818년 : 헌덕왕</t>
+1. 818년 : 헌덕왕
+2. 552년 : 성왕
+3. 631년 : 무왕</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>3, 818년 : 헌덕왕</t>
+          <t>1, 818년 : 헌덕왕</t>
         </is>
       </c>
     </row>
@@ -3074,14 +3074,14 @@
       <c r="A177" t="inlineStr">
         <is>
           <t>통일신라 김범문의 난
-1. 822년 : 헌덕왕
-2. 894년 : 진성여왕
-3. 659년 : 의자왕</t>
+1. 612년 : 영류왕
+2. 822년 : 헌덕왕
+3. 825년 : 흥덕왕</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>1, 822년 : 헌덕왕</t>
+          <t>2, 822년 : 헌덕왕</t>
         </is>
       </c>
     </row>
@@ -3089,14 +3089,14 @@
       <c r="A178" t="inlineStr">
         <is>
           <t>통일신라 장보고 청해진 설치
-1. 644년 : 선덕여왕
-2. 682년 : 신문왕
-3. 825년 : 흥덕왕</t>
+1. 825년 : 흥덕왕
+2. 634년 : 무왕
+3. 642년 : 의자왕</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>3, 825년 : 흥덕왕</t>
+          <t>1, 825년 : 흥덕왕</t>
         </is>
       </c>
     </row>
@@ -3104,14 +3104,14 @@
       <c r="A179" t="inlineStr">
         <is>
           <t>통일신라 사치 금지령 발표
-1. 762년 : 혜공왕
-2. 610년 : 진평왕
-3. 828년 : 흥덕왕</t>
+1. 828년 : 흥덕왕
+2. 737년 : 경덕왕
+3. 261년 : 고이왕</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>3, 828년 : 흥덕왕</t>
+          <t>1, 828년 : 흥덕왕</t>
         </is>
       </c>
     </row>
@@ -3119,14 +3119,14 @@
       <c r="A180" t="inlineStr">
         <is>
           <t>통일신라 장보고의 난
-1. 834년 : 문성왕
-2. 565년 : 위덕왕
-3. 504년 : 지증왕</t>
+1. 817년 : 선왕
+2. 314년 : 미천왕
+3. 834년 : 문성왕</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>1, 834년 : 문성왕</t>
+          <t>3, 834년 : 문성왕</t>
         </is>
       </c>
     </row>
@@ -3135,8 +3135,8 @@
         <is>
           <t>통일신라 향가집 삼대목 편찬
 1. 846년 : 진성여왕
-2. 647년 : 진덕여왕
-3. 751년 : 문왕</t>
+2. 674년 : 문무왕
+3. 689년 : 효소왕</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -3149,14 +3149,14 @@
       <c r="A182" t="inlineStr">
         <is>
           <t>통일신라 원종 애노의 난 발발
-1. 888년 : 진성여왕
-2. 698년 : 고왕
-3. 494년 : 문자왕</t>
+1. 892년 : 진성여왕
+2. 888년 : 진성여왕
+3. 414년 : 장수왕</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>1, 888년 : 진성여왕</t>
+          <t>2, 888년 : 진성여왕</t>
         </is>
       </c>
     </row>
@@ -3164,14 +3164,14 @@
       <c r="A183" t="inlineStr">
         <is>
           <t>통일신라 견훤 무진주 점령
-1. 666년 : 문무왕
-2. 889년 : 진성여왕
-3. 762년 : 혜공왕</t>
+1. 889년 : 진성여왕
+2. 684년 : 신문왕
+3. 314년 : 미천왕</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2, 889년 : 진성여왕</t>
+          <t>1, 889년 : 진성여왕</t>
         </is>
       </c>
     </row>
@@ -3179,14 +3179,14 @@
       <c r="A184" t="inlineStr">
         <is>
           <t>통일신라 최치원 시무 10조 건의 좌절
-1. 689년 : 신문왕
-2. 372년 : 근초고왕
-3. 892년 : 진성여왕</t>
+1. 892년 : 진성여왕
+2. 555년 : 진흥왕
+3. 666년 : 문무왕</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>3, 892년 : 진성여왕</t>
+          <t>1, 892년 : 진성여왕</t>
         </is>
       </c>
     </row>
@@ -3194,14 +3194,14 @@
       <c r="A185" t="inlineStr">
         <is>
           <t>통일신라 적고적의 난 발발
-1. 660년 : 멸망
-2. 490년 : 소지왕
-3. 894년 : 진성여왕</t>
+1. 894년 : 진성여왕
+2. 610년 : 진평왕
+3. 768년 : 혜공왕</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>3, 894년 : 진성여왕</t>
+          <t>1, 894년 : 진성여왕</t>
         </is>
       </c>
     </row>
@@ -3209,14 +3209,14 @@
       <c r="A186" t="inlineStr">
         <is>
           <t>통일신라 발해와 쟁장 사건
-1. 896년 : 효공왕
-2. 624년 : 영류왕
-3. 676년 : 신문왕</t>
+1. 498년 : 동성왕
+2. 896년 : 효공왕
+3. 687년 : 신문왕</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>1, 896년 : 효공왕</t>
+          <t>2, 896년 : 효공왕</t>
         </is>
       </c>
     </row>
@@ -3224,14 +3224,14 @@
       <c r="A187" t="inlineStr">
         <is>
           <t>견훤 후백제 건국
-1. 897년 : 효공왕
-2. 647년 : 보장왕
-3. 372년 : 소수림왕</t>
+1. 427년 : 장수왕
+2. 897년 : 효공왕
+3. 676년 : 신문왕</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>1, 897년 : 효공왕</t>
+          <t>2, 897년 : 효공왕</t>
         </is>
       </c>
     </row>
@@ -3239,14 +3239,14 @@
       <c r="A188" t="inlineStr">
         <is>
           <t>궁예 후고구려 건국
-1. 900년 : 효공왕
-2. 567년 : 진흥왕
-3. 788년 : 문왕</t>
+1. 717년 : 무왕
+2. 900년 : 효공왕
+3. 642년 : 의자왕</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>1, 900년 : 효공왕</t>
+          <t>2, 900년 : 효공왕</t>
         </is>
       </c>
     </row>
@@ -3255,8 +3255,8 @@
         <is>
           <t>후고구려 국호 마진으로 변경
 1. 901년 : 효공왕
-2. 926년 : 경애왕
-3. 934년 : 경순왕</t>
+2. 935년 : 경순왕
+3. 828년 : 흥덕왕</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -3270,8 +3270,8 @@
         <is>
           <t>후고구려 철원으로 수도 이전
 1. 901년 : 효공왕
-2. 372년 : 근초고왕
-3. 514년 : 지증왕</t>
+2. 785년 : 원성왕
+3. 892년 : 진성여왕</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -3284,8 +3284,8 @@
       <c r="A191" t="inlineStr">
         <is>
           <t>통일신라 발해와 등제 서열 사건
-1. 609년 : 영양왕
-2. 375년 : 근초고왕
+1. 648년 : 진덕여왕
+2. 565년 : 위덕왕
 3. 905년 : 효공왕</t>
         </is>
       </c>
@@ -3300,8 +3300,8 @@
         <is>
           <t>후고구려 국호 태봉으로 변경
 1. 906년 : 효공왕
-2. 554년 : 진흥왕
-3. 261년 : 고이왕</t>
+2. 493년 : 동성왕
+3. 520년 : 법흥왕</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -3314,14 +3314,14 @@
       <c r="A193" t="inlineStr">
         <is>
           <t>후고구려 멸망 및 고려 건국
-1. 536년 : 법흥왕
-2. 911년 : 경명왕
-3. 828년 : 흥덕왕</t>
+1. 581년 : 진평왕
+2. 905년 : 효공왕
+3. 911년 : 경명왕</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2, 911년 : 경명왕</t>
+          <t>3, 911년 : 경명왕</t>
         </is>
       </c>
     </row>
@@ -3329,14 +3329,14 @@
       <c r="A194" t="inlineStr">
         <is>
           <t>발해 멸망
-1. 732년 : 성덕왕
-2. 918년 : 애왕
-3. 762년 : 혜공왕</t>
+1. 918년 : 애왕
+2. 751년 : 문왕
+3. 642년 : 보장왕</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2, 918년 : 애왕</t>
+          <t>1, 918년 : 애왕</t>
         </is>
       </c>
     </row>
@@ -3344,9 +3344,9 @@
       <c r="A195" t="inlineStr">
         <is>
           <t>후백제 견훤 경주 침공 및 신라왕 살해
-1. 757년 : 문왕
+1. 609년 : 영양왕
 2. 926년 : 경애왕
-3. 342년 : 고국원왕</t>
+3. 475년 : 문주왕</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -3359,14 +3359,14 @@
       <c r="A196" t="inlineStr">
         <is>
           <t>후백제 고려의 공산 전투 
-1. 927년 : 경순왕
-2. 651년 : 진덕여왕
-3. 498년 : 동성왕</t>
+1. 822년 : 헌덕왕
+2. 927년 : 경순왕
+3. 901년 : 효공왕</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>1, 927년 : 경순왕</t>
+          <t>2, 927년 : 경순왕</t>
         </is>
       </c>
     </row>
@@ -3374,14 +3374,14 @@
       <c r="A197" t="inlineStr">
         <is>
           <t>후백제 고려의 고창 전투
-1. 660년 : 문무왕
-2. 565년 : 위덕왕
-3. 927년 : 경순왕</t>
+1. 927년 : 경순왕
+2. 788년 : 문왕
+3. 737년 : 경덕왕</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>3, 927년 : 경순왕</t>
+          <t>1, 927년 : 경순왕</t>
         </is>
       </c>
     </row>
@@ -3389,14 +3389,14 @@
       <c r="A198" t="inlineStr">
         <is>
           <t>발해 대광현의 고려 망명
-1. 911년 : 경명왕
-2. 433년 : 비유왕
-3. 930년 : 경순왕</t>
+1. 930년 : 경순왕
+2. 590년 : 영양왕
+3. 934년 : 경순왕</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>3, 930년 : 경순왕</t>
+          <t>1, 930년 : 경순왕</t>
         </is>
       </c>
     </row>
@@ -3404,14 +3404,14 @@
       <c r="A199" t="inlineStr">
         <is>
           <t>후백제 견훤 고려에 투항
-1. 561년 : 진흥왕
-2. 934년 : 경순왕
-3. 727년 : 무왕</t>
+1. 562년 : 진흥왕
+2. 194년 : 고국천왕
+3. 934년 : 경순왕</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2, 934년 : 경순왕</t>
+          <t>3, 934년 : 경순왕</t>
         </is>
       </c>
     </row>
@@ -3419,8 +3419,8 @@
       <c r="A200" t="inlineStr">
         <is>
           <t>통일신라 멸망
-1. 509년 : 지증왕
-2. 634년 : 무왕
+1. 475년 : 장수왕
+2. 433년 : 비유왕
 3. 935년 : 경순왕</t>
         </is>
       </c>
